--- a/tex/tables/rep results (Autosaved).xlsx
+++ b/tex/tables/rep results (Autosaved).xlsx
@@ -12,16 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">results!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$52:$C$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DIMS!$A$51:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$P$50:$R$50</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="50">
   <si>
     <t>Sentiment</t>
   </si>
@@ -137,82 +136,40 @@
     <t>MDS 50</t>
   </si>
   <si>
-    <t>100 PCA, 200 D2V, 200 AWV, 200 MDS</t>
-  </si>
-  <si>
-    <t>200 PCA, 200 D2V, 200 AWV, 200 MDS</t>
-  </si>
-  <si>
-    <t>200 PCA, 100 MDS, 200 AWV, 50 D2V</t>
-  </si>
-  <si>
-    <t>100 PCA, 100 D2V, 200 AWV, 200 MDS</t>
-  </si>
-  <si>
     <t>avg_acc</t>
   </si>
   <si>
     <t>avg_f1</t>
   </si>
   <si>
-    <t>['num_stw_Foursquare_OVR_200_MDS_Dev_133MClass_Balanced_balanced_Features_None_MD_3_DecisionTree3']</t>
+    <t>[ 'num_stw_Ratings_OVR_200_MDS_Dev_3528MClass_Balanced_balanced_Features_None_MD_1_DecisionTree1']</t>
   </si>
   <si>
-    <t>['num_stw_Foursquare_OVR_200_AWVEmp_Dev_133MClass_Balanced_balanced_Features_log2_MD_3_DecisionTree3']</t>
+    <t>[ 'num_stw_Ratings_OVR_200_AWVEmp_Dev_3528MClass_Balanced_balanced_Features_None_MD_1_DecisionTree1']</t>
   </si>
   <si>
-    <t>['num_stw_Foursquare_OVR_200_PCA_Dev_133MClass_Balanced_balanced_Features_None_MD_3_DecisionTree3']</t>
+    <t>[ 'num_stw_Ratings_OVR_200_PCA_Dev_3528MClass_Balanced_balanced_Features_None_MD_1_DecisionTree1']</t>
   </si>
   <si>
-    <t>['num_stw_Foursquare_OVR_100_MDS_Dev_133MClass_Balanced_None_Features_None_MD_3_DecisionTree3']</t>
+    <t>[ 'num_stw_Ratings_OVR_100_MDS_Dev_3528MClass_Balanced_balanced_Features_None_MD_1_DecisionTree1']</t>
   </si>
   <si>
-    <t>['num_stw_Foursquare_OVR_100_AWVEmp_Dev_133MClass_Balanced_balanced_Features_auto_MD_3_DecisionTree3']</t>
+    <t>[ 'num_stw_Ratings_OVR_100_AWVEmp_Dev_3528MClass_Balanced_balanced_Features_auto_MD_1_DecisionTree1']</t>
   </si>
   <si>
-    <t>['num_stw_Foursquare_OVR_100_PCA_Dev_133MClass_Balanced_None_Features_log2_MD_3_DecisionTree3']</t>
+    <t>[ 'num_stw_Ratings_OVR_100_PCA_Dev_3528MClass_Balanced_balanced_Features_None_MD_1_DecisionTree1']</t>
   </si>
   <si>
-    <t>['num_stw_Foursquare_OVR_50_MDS_Dev_133MClass_Balanced_balanced_Features_None_MD_3_DecisionTree3']</t>
+    <t>[ 'num_stw_Ratings_OVR_50_MDS_Dev_3528MClass_Balanced_balanced_Features_None_MD_1_DecisionTree1']</t>
   </si>
   <si>
-    <t>['num_stw_Foursquare_OVR_50_AWVEmp_Dev_133MClass_Balanced_None_Features_log2_MD_3_DecisionTree3']</t>
+    <t>[ 'num_stw_Ratings_OVR_50_AWVEmp_Dev_3528MClass_Balanced_balanced_Features_None_MD_1_DecisionTree1']</t>
   </si>
   <si>
-    <t>['num_stw_Foursquare_OVR_50_PCA_Dev_133MClass_Balanced_balanced_Features_None_MD_3_DecisionTree3']</t>
+    <t>[ 'num_stw_Ratings_OVR_50_PCA_Dev_3528MClass_Balanced_balanced_Features_None_MD_1_DecisionTree1']</t>
   </si>
   <si>
-    <t>['num_stw_Foursquare_OVR_ppmi_Dev_133MClass_Balanced_balanced_Features_None_MD_3_DecisionTree3']</t>
-  </si>
-  <si>
-    <t>['num_stw_Foursquare_OVR_200_MDS_Dev_133MClass_Balanced_balanced_Features_None_MD_2_DecisionTree2']</t>
-  </si>
-  <si>
-    <t>['num_stw_Foursquare_OVR_200_AWVEmp_Dev_133MClass_Balanced_balanced_Features_None_MD_2_DecisionTree2']</t>
-  </si>
-  <si>
-    <t>['num_stw_Foursquare_OVR_200_PCA_Dev_133MClass_Balanced_balanced_Features_auto_MD_2_DecisionTree2']</t>
-  </si>
-  <si>
-    <t>['num_stw_Foursquare_OVR_100_MDS_Dev_133MClass_Balanced_None_Features_None_MD_2_DecisionTree2']</t>
-  </si>
-  <si>
-    <t>['num_stw_Foursquare_OVR_100_AWVEmp_Dev_133MClass_Balanced_None_Features_None_MD_2_DecisionTree2']</t>
-  </si>
-  <si>
-    <t>['num_stw_Foursquare_OVR_100_PCA_Dev_133MClass_Balanced_balanced_Features_auto_MD_2_DecisionTree2']</t>
-  </si>
-  <si>
-    <t>['num_stw_Foursquare_OVR_50_MDS_Dev_133MClass_Balanced_balanced_Features_None_MD_2_DecisionTree2']</t>
-  </si>
-  <si>
-    <t>['num_stw_Foursquare_OVR_50_AWVEmp_Dev_133MClass_Balanced_balanced_Features_None_MD_2_DecisionTree2']</t>
-  </si>
-  <si>
-    <t>['num_stw_Foursquare_OVR_50_PCA_Dev_133MClass_Balanced_balanced_Features_None_MD_2_DecisionTree2']</t>
-  </si>
-  <si>
-    <t>['num_stw_Foursquare_OVR_ppmi_Dev_133MClass_Balanced_None_Features_None_MD_2_DecisionTree2']</t>
+    <t>['num_stw_Ratings_OVR_ppmi_Dev_3528MClass_Balanced_balanced_Features_None_MD_1_DecisionTree1']</t>
   </si>
 </sst>
 </file>
@@ -551,16 +508,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="113.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1037,482 +995,525 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>0.68195404145910299</v>
+        <v>0.58149606299212597</v>
       </c>
       <c r="C9">
-        <v>0.20525524655080599</v>
+        <v>0.184007110234327</v>
       </c>
       <c r="D9">
-        <v>0.118991616318812</v>
+        <v>0.103363707470146</v>
       </c>
       <c r="E9">
-        <v>0.746262036417631</v>
+        <v>0.83712156860704501</v>
       </c>
       <c r="F9">
-        <v>0.80215330226578796</v>
+        <v>0.74170817933472499</v>
       </c>
       <c r="G9">
-        <v>0.26840197402128602</v>
+        <v>0.26207227449642101</v>
       </c>
       <c r="H9">
-        <v>0.16939641839685099</v>
+        <v>0.15976573194715599</v>
       </c>
       <c r="I9">
-        <v>0.64591242810661398</v>
+        <v>0.72869403826837598</v>
       </c>
       <c r="J9">
-        <v>0.76974931704965399</v>
+        <v>0.71857624939739595</v>
       </c>
       <c r="K9">
-        <v>0.26932633295793701</v>
+        <v>0.23578925062855499</v>
       </c>
       <c r="L9">
-        <v>0.16415014265318101</v>
+        <v>0.13873045195081099</v>
       </c>
       <c r="M9">
-        <v>0.74965224840461198</v>
+        <v>0.78497363880650095</v>
       </c>
       <c r="N9">
-        <v>0.94008516792543795</v>
+        <v>0.934653704001285</v>
       </c>
       <c r="O9">
-        <v>0.365786670194722</v>
+        <v>0.32746503442467501</v>
       </c>
       <c r="P9">
-        <v>0.38854301030598298</v>
+        <v>0.33232578876386398</v>
       </c>
       <c r="Q9">
-        <v>0.34554845229656</v>
+        <v>0.322744421696883</v>
       </c>
       <c r="R9">
-        <v>0.96092720552788002</v>
+        <v>0.965466816647919</v>
       </c>
       <c r="S9">
-        <v>0.468089115180857</v>
+        <v>0.50051308137573403</v>
       </c>
       <c r="T9">
-        <v>0.641032534705679</v>
+        <v>0.80175386185183295</v>
       </c>
       <c r="U9">
-        <v>0.36863540060736599</v>
+        <v>0.36381708532456197</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>0.681656757191065</v>
+        <v>0.58636509721998997</v>
       </c>
       <c r="C10">
-        <v>0.207813437078853</v>
+        <v>0.18718946785580901</v>
       </c>
       <c r="D10">
-        <v>0.120314430827279</v>
+        <v>0.10544827663611001</v>
       </c>
       <c r="E10">
-        <v>0.76192692076008495</v>
+        <v>0.83261212600017698</v>
       </c>
       <c r="F10">
-        <v>0.79243130322995303</v>
+        <v>0.75395307729390904</v>
       </c>
       <c r="G10">
-        <v>0.267817792315448</v>
+        <v>0.26119837053255102</v>
       </c>
       <c r="H10">
-        <v>0.16788359581717299</v>
+        <v>0.15921011307823599</v>
       </c>
       <c r="I10">
-        <v>0.661701419709673</v>
+        <v>0.72674018790391204</v>
       </c>
       <c r="J10">
-        <v>0.78618029889120999</v>
+        <v>0.70531094327494703</v>
       </c>
       <c r="K10">
-        <v>0.268067024383282</v>
+        <v>0.23589581170144999</v>
       </c>
       <c r="L10">
-        <v>0.16435039338177801</v>
+        <v>0.13810437073576101</v>
       </c>
       <c r="M10">
-        <v>0.726607077980164</v>
+        <v>0.80813383745719203</v>
       </c>
       <c r="N10">
-        <v>0.940470834002892</v>
+        <v>0.93499919652900498</v>
       </c>
       <c r="O10">
-        <v>0.37570331932423101</v>
+        <v>0.32963115692008998</v>
       </c>
       <c r="P10">
-        <v>0.39215138589721199</v>
+        <v>0.33826909943644201</v>
       </c>
       <c r="Q10">
-        <v>0.36057947818696001</v>
+        <v>0.321423381808215</v>
       </c>
       <c r="R10">
-        <v>0.97072955166318498</v>
+        <v>0.87820183191386703</v>
       </c>
       <c r="S10">
-        <v>0.62817105056140399</v>
+        <v>0.43929211047328398</v>
       </c>
       <c r="T10">
-        <v>0.76117171664878502</v>
+        <v>0.30814906943079601</v>
       </c>
       <c r="U10">
-        <v>0.53473585869624796</v>
+        <v>0.76476183485496796</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>0.68322352563072397</v>
+        <v>0.59296962879640003</v>
       </c>
       <c r="C11">
-        <v>0.20672431073856801</v>
+        <v>0.15289735242400801</v>
       </c>
       <c r="D11">
-        <v>0.119531875996541</v>
+        <v>8.66881152115659E-2</v>
       </c>
       <c r="E11">
-        <v>0.76408693898579705</v>
+        <v>0.64722214288513003</v>
       </c>
       <c r="F11">
-        <v>0.808605174353205</v>
+        <v>0.71597300337457803</v>
       </c>
       <c r="G11">
-        <v>0.29440989228127301</v>
+        <v>0.250323391540616</v>
       </c>
       <c r="H11">
-        <v>0.18685676605093299</v>
+        <v>0.150004951918666</v>
       </c>
       <c r="I11">
-        <v>0.69369426787390198</v>
+        <v>0.75573322772041795</v>
       </c>
       <c r="J11">
-        <v>0.78220311746745896</v>
+        <v>0.73577856339386105</v>
       </c>
       <c r="K11">
-        <v>0.28049902017009098</v>
+        <v>0.243034513079528</v>
       </c>
       <c r="L11">
-        <v>0.17194777970966599</v>
+        <v>0.14413671988913401</v>
       </c>
       <c r="M11">
-        <v>0.76078575108594704</v>
+        <v>0.77433750292999504</v>
       </c>
       <c r="N11">
-        <v>0.94278483046761996</v>
+        <v>0.9348786758798</v>
       </c>
       <c r="O11">
-        <v>0.39436517636691099</v>
+        <v>0.32360869960747601</v>
       </c>
       <c r="P11">
-        <v>0.41488470673619898</v>
+        <v>0.33485585244021099</v>
       </c>
       <c r="Q11">
-        <v>0.37577971595236298</v>
+        <v>0.31309253405260601</v>
       </c>
       <c r="R11">
-        <v>0.97018319138678999</v>
+        <v>0.85425839627189404</v>
       </c>
       <c r="S11">
-        <v>0.60068321658147505</v>
+        <v>0.393543791207907</v>
       </c>
       <c r="T11">
-        <v>0.75815897511098895</v>
+        <v>0.258793591141181</v>
       </c>
       <c r="U11">
-        <v>0.49737450439335101</v>
+        <v>0.82105632646625903</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12">
-        <v>0.58149606299212597</v>
+        <v>0.68195404145910299</v>
       </c>
       <c r="C12">
-        <v>0.184007110234327</v>
+        <v>0.20525524655080599</v>
       </c>
       <c r="D12">
-        <v>0.103363707470146</v>
+        <v>0.118991616318812</v>
       </c>
       <c r="E12">
-        <v>0.83712156860704501</v>
+        <v>0.746262036417631</v>
       </c>
       <c r="F12">
-        <v>0.74170817933472499</v>
+        <v>0.80215330226578796</v>
       </c>
       <c r="G12">
-        <v>0.26207227449642101</v>
+        <v>0.26840197402128602</v>
       </c>
       <c r="H12">
-        <v>0.15976573194715599</v>
+        <v>0.16939641839685099</v>
       </c>
       <c r="I12">
-        <v>0.72869403826837598</v>
+        <v>0.64591242810661398</v>
       </c>
       <c r="J12">
-        <v>0.71857624939739595</v>
+        <v>0.76974931704965399</v>
       </c>
       <c r="K12">
-        <v>0.23578925062855499</v>
+        <v>0.26932633295793701</v>
       </c>
       <c r="L12">
-        <v>0.13873045195081099</v>
+        <v>0.16415014265318101</v>
       </c>
       <c r="M12">
-        <v>0.78497363880650095</v>
+        <v>0.74965224840461198</v>
       </c>
       <c r="N12">
-        <v>0.934653704001285</v>
+        <v>0.94008516792543795</v>
       </c>
       <c r="O12">
-        <v>0.32746503442467501</v>
+        <v>0.365786670194722</v>
       </c>
       <c r="P12">
-        <v>0.33232578876386398</v>
+        <v>0.38854301030598298</v>
       </c>
       <c r="Q12">
-        <v>0.322744421696883</v>
+        <v>0.34554845229656</v>
       </c>
       <c r="R12">
-        <v>0.965466816647919</v>
+        <v>0.96092720552788002</v>
       </c>
       <c r="S12">
-        <v>0.50051308137573403</v>
+        <v>0.468089115180857</v>
       </c>
       <c r="T12">
-        <v>0.80175386185183295</v>
+        <v>0.641032534705679</v>
       </c>
       <c r="U12">
-        <v>0.36381708532456197</v>
+        <v>0.36863540060736599</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>0.58636509721998997</v>
+        <v>0.681656757191065</v>
       </c>
       <c r="C13">
-        <v>0.18718946785580901</v>
+        <v>0.207813437078853</v>
       </c>
       <c r="D13">
-        <v>0.10544827663611001</v>
+        <v>0.120314430827279</v>
       </c>
       <c r="E13">
-        <v>0.83261212600017698</v>
+        <v>0.76192692076008495</v>
       </c>
       <c r="F13">
-        <v>0.75395307729390904</v>
+        <v>0.79243130322995303</v>
       </c>
       <c r="G13">
-        <v>0.26119837053255102</v>
+        <v>0.267817792315448</v>
       </c>
       <c r="H13">
-        <v>0.15921011307823599</v>
+        <v>0.16788359581717299</v>
       </c>
       <c r="I13">
-        <v>0.72674018790391204</v>
+        <v>0.661701419709673</v>
       </c>
       <c r="J13">
-        <v>0.70531094327494703</v>
+        <v>0.78618029889120999</v>
       </c>
       <c r="K13">
-        <v>0.23589581170144999</v>
+        <v>0.268067024383282</v>
       </c>
       <c r="L13">
-        <v>0.13810437073576101</v>
+        <v>0.16435039338177801</v>
       </c>
       <c r="M13">
-        <v>0.80813383745719203</v>
+        <v>0.726607077980164</v>
       </c>
       <c r="N13">
-        <v>0.93499919652900498</v>
+        <v>0.940470834002892</v>
       </c>
       <c r="O13">
-        <v>0.32963115692008998</v>
+        <v>0.37570331932423101</v>
       </c>
       <c r="P13">
-        <v>0.33826909943644201</v>
+        <v>0.39215138589721199</v>
       </c>
       <c r="Q13">
-        <v>0.321423381808215</v>
+        <v>0.36057947818696001</v>
       </c>
       <c r="R13">
-        <v>0.87820183191386703</v>
+        <v>0.97072955166318498</v>
       </c>
       <c r="S13">
-        <v>0.43929211047328398</v>
+        <v>0.62817105056140399</v>
       </c>
       <c r="T13">
-        <v>0.30814906943079601</v>
+        <v>0.76117171664878502</v>
       </c>
       <c r="U13">
-        <v>0.76476183485496796</v>
+        <v>0.53473585869624796</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14">
-        <v>0.59296962879640003</v>
+        <v>0.68322352563072397</v>
       </c>
       <c r="C14">
-        <v>0.15289735242400801</v>
+        <v>0.20672431073856801</v>
       </c>
       <c r="D14">
-        <v>8.66881152115659E-2</v>
+        <v>0.119531875996541</v>
       </c>
       <c r="E14">
-        <v>0.64722214288513003</v>
+        <v>0.76408693898579705</v>
       </c>
       <c r="F14">
-        <v>0.71597300337457803</v>
+        <v>0.808605174353205</v>
       </c>
       <c r="G14">
-        <v>0.250323391540616</v>
+        <v>0.29440989228127301</v>
       </c>
       <c r="H14">
-        <v>0.150004951918666</v>
+        <v>0.18685676605093299</v>
       </c>
       <c r="I14">
-        <v>0.75573322772041795</v>
+        <v>0.69369426787390198</v>
       </c>
       <c r="J14">
-        <v>0.73577856339386105</v>
+        <v>0.78220311746745896</v>
       </c>
       <c r="K14">
-        <v>0.243034513079528</v>
+        <v>0.28049902017009098</v>
       </c>
       <c r="L14">
-        <v>0.14413671988913401</v>
+        <v>0.17194777970966599</v>
       </c>
       <c r="M14">
-        <v>0.77433750292999504</v>
+        <v>0.76078575108594704</v>
       </c>
       <c r="N14">
-        <v>0.9348786758798</v>
+        <v>0.94278483046761996</v>
       </c>
       <c r="O14">
-        <v>0.32360869960747601</v>
+        <v>0.39436517636691099</v>
       </c>
       <c r="P14">
-        <v>0.33485585244021099</v>
+        <v>0.41488470673619898</v>
       </c>
       <c r="Q14">
-        <v>0.31309253405260601</v>
+        <v>0.37577971595236298</v>
       </c>
       <c r="R14">
-        <v>0.85425839627189404</v>
+        <v>0.97018319138678999</v>
       </c>
       <c r="S14">
-        <v>0.393543791207907</v>
+        <v>0.60068321658147505</v>
       </c>
       <c r="T14">
-        <v>0.258793591141181</v>
+        <v>0.75815897511098895</v>
       </c>
       <c r="U14">
-        <v>0.82105632646625903</v>
+        <v>0.49737450439335101</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0.94819219026193102</v>
+      </c>
+      <c r="C15">
+        <v>0.33036338448931801</v>
+      </c>
+      <c r="D15">
+        <v>0.53238278240428605</v>
+      </c>
+      <c r="E15">
+        <v>0.23948700392264999</v>
+      </c>
+      <c r="F15">
+        <v>0.94686646312068101</v>
+      </c>
+      <c r="G15">
+        <v>0.406780075282477</v>
+      </c>
+      <c r="H15">
+        <v>0.51102020858522101</v>
+      </c>
+      <c r="I15">
+        <v>0.33786159251105402</v>
+      </c>
+      <c r="J15">
+        <v>0.94375703037120295</v>
+      </c>
+      <c r="K15">
+        <v>0.44442116940815202</v>
+      </c>
+      <c r="L15">
+        <v>0.50560187893901498</v>
+      </c>
+      <c r="M15">
+        <v>0.396448625741399</v>
+      </c>
+      <c r="N15">
+        <v>0.95057046440623405</v>
+      </c>
+      <c r="O15">
+        <v>0.493726744000618</v>
+      </c>
+      <c r="P15">
+        <v>0.49561220064499301</v>
+      </c>
+      <c r="Q15">
+        <v>0.49185557866678697</v>
+      </c>
+      <c r="R15">
+        <v>0.96218062027960705</v>
+      </c>
+      <c r="S15">
+        <v>0.61300432505569202</v>
+      </c>
+      <c r="T15">
+        <v>0.62740985679487904</v>
+      </c>
+      <c r="U15">
+        <v>0.59924545697834897</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.94819219026193102</v>
+        <v>0.85207295516631798</v>
       </c>
       <c r="C16">
-        <v>0.33036338448931801</v>
+        <v>0.431453358494362</v>
       </c>
       <c r="D16">
-        <v>0.53238278240428605</v>
+        <v>0.30391995410135197</v>
       </c>
       <c r="E16">
-        <v>0.23948700392264999</v>
+        <v>0.74340863930555401</v>
       </c>
       <c r="F16">
-        <v>0.94686646312068101</v>
+        <v>0.96000321388397802</v>
       </c>
       <c r="G16">
-        <v>0.406780075282477</v>
+        <v>0.42294988876850098</v>
       </c>
       <c r="H16">
-        <v>0.51102020858522101</v>
+        <v>0.60359101642721003</v>
       </c>
       <c r="I16">
-        <v>0.33786159251105402</v>
+        <v>0.32552702051904903</v>
       </c>
       <c r="J16">
-        <v>0.94375703037120295</v>
+        <v>0.96053350474047805</v>
       </c>
       <c r="K16">
-        <v>0.44442116940815202</v>
+        <v>0.44407182948365198</v>
       </c>
       <c r="L16">
-        <v>0.50560187893901498</v>
+        <v>0.60649525862778397</v>
       </c>
       <c r="M16">
-        <v>0.396448625741399</v>
+        <v>0.35026780250643402</v>
       </c>
       <c r="N16">
-        <v>0.95057046440623405</v>
+        <v>0.944166800578499</v>
       </c>
       <c r="O16">
-        <v>0.493726744000618</v>
+        <v>0.431533587578039</v>
       </c>
       <c r="P16">
-        <v>0.49561220064499301</v>
+        <v>0.43447023032029802</v>
       </c>
       <c r="Q16">
-        <v>0.49185557866678697</v>
+        <v>0.42863637663773302</v>
       </c>
       <c r="R16">
-        <v>0.96218062027960705</v>
+        <v>0.87854732444158701</v>
       </c>
       <c r="S16">
-        <v>0.61300432505569202</v>
+        <v>0.46044265143837099</v>
       </c>
       <c r="T16">
-        <v>0.62740985679487904</v>
+        <v>0.31787890588105999</v>
       </c>
       <c r="U16">
-        <v>0.59924545697834897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.83486793720471797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1531,26 +1532,26 @@
       <c r="J20" t="s">
         <v>10</v>
       </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
         <v>4</v>
       </c>
-      <c r="P20" t="s">
+      <c r="O20" t="s">
         <v>7</v>
       </c>
-      <c r="R20" t="s">
+      <c r="Q20" t="s">
         <v>8</v>
       </c>
-      <c r="T20" t="s">
+      <c r="S20" t="s">
         <v>9</v>
       </c>
-      <c r="V20" t="s">
+      <c r="U20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>5</v>
       </c>
@@ -1581,38 +1582,38 @@
       <c r="K21" t="s">
         <v>6</v>
       </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
       <c r="N21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" t="s">
         <v>5</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>6</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>6</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>5</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>6</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>5</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>6</v>
       </c>
-      <c r="V21" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1646,158 +1647,348 @@
       <c r="K22">
         <v>0.76088091659718304</v>
       </c>
-      <c r="M22" t="s">
+      <c r="L22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0.74475999999999998</v>
+      </c>
+      <c r="N22">
+        <v>0.70549683851017597</v>
+      </c>
+      <c r="O22">
+        <v>0.75503999999999905</v>
+      </c>
+      <c r="P22">
+        <v>0.76967052805777003</v>
+      </c>
+      <c r="Q22">
+        <v>0.77803999999999995</v>
+      </c>
+      <c r="R22">
+        <v>0.77324179641207902</v>
+      </c>
+      <c r="S22">
+        <v>0.78095999999999999</v>
+      </c>
+      <c r="T22">
+        <v>0.77897965773329003</v>
+      </c>
+      <c r="U22">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="V22">
+        <v>0.892751333201659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>0.781514473078327</v>
+      </c>
+      <c r="C23">
+        <v>0.252300200675391</v>
+      </c>
+      <c r="D23">
+        <v>0.97148255767795599</v>
+      </c>
+      <c r="E23">
+        <v>0.32834126294667698</v>
+      </c>
+      <c r="F23">
+        <v>0.97375315581384203</v>
+      </c>
+      <c r="G23">
+        <v>0.41653475536812901</v>
+      </c>
+      <c r="H23">
+        <v>0.97297511869035702</v>
+      </c>
+      <c r="I23">
+        <v>0.49462548765768199</v>
+      </c>
+      <c r="J23">
+        <v>0.987217961542736</v>
+      </c>
+      <c r="K23">
+        <v>0.71854435798884497</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0.64236000000000004</v>
+      </c>
+      <c r="N23">
+        <v>0.65157242508086199</v>
+      </c>
+      <c r="O23">
+        <v>0.64295999999999998</v>
+      </c>
+      <c r="P23">
+        <v>0.69389574759945105</v>
+      </c>
+      <c r="Q23">
+        <v>0.69488000000000005</v>
+      </c>
+      <c r="R23">
+        <v>0.71659979194531098</v>
+      </c>
+      <c r="S23">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="T23">
+        <v>0.66309736268094299</v>
+      </c>
+      <c r="U23">
+        <v>0.82747999999999899</v>
+      </c>
+      <c r="V23">
+        <v>0.82850212732116502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>0.79139078105400196</v>
+      </c>
+      <c r="C24">
+        <v>0.26348254673169502</v>
+      </c>
+      <c r="D24">
+        <v>0.89955381952714397</v>
+      </c>
+      <c r="E24">
+        <v>0.35663736134567098</v>
+      </c>
+      <c r="F24">
+        <v>0.97870718811032198</v>
+      </c>
+      <c r="G24">
+        <v>0.48925416278294998</v>
+      </c>
+      <c r="H24">
+        <v>0.97613490211022702</v>
+      </c>
+      <c r="I24">
+        <v>0.52245741588709405</v>
+      </c>
+      <c r="J24">
+        <v>0.98750377109830201</v>
+      </c>
+      <c r="K24">
+        <v>0.67033836205645103</v>
+      </c>
+      <c r="L24" t="s">
         <v>2</v>
       </c>
-      <c r="B23">
+      <c r="M24">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="N24">
+        <v>0.66441694788151395</v>
+      </c>
+      <c r="O24">
+        <v>0.65980000000000005</v>
+      </c>
+      <c r="P24">
+        <v>0.707420275895283</v>
+      </c>
+      <c r="Q24">
+        <v>0.70155999999999996</v>
+      </c>
+      <c r="R24">
+        <v>0.69969812839605505</v>
+      </c>
+      <c r="S24">
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="T24">
+        <v>0.70785789431091695</v>
+      </c>
+      <c r="U24">
+        <v>0.87763999999999998</v>
+      </c>
+      <c r="V24">
+        <v>0.87809349220898203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
         <v>0.81776465170930002</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>0.26780520113045198</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>0.86695565188396095</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>0.29814957374683398</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>0.97389606059162503</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <v>0.44454437485867099</v>
       </c>
-      <c r="H23">
+      <c r="H25">
         <v>0.97079979040632502</v>
       </c>
-      <c r="I23">
+      <c r="I25">
         <v>0.48243966606170902</v>
       </c>
-      <c r="J23">
+      <c r="J25">
         <v>0.98583654869083304</v>
       </c>
-      <c r="K23">
+      <c r="K25">
         <v>0.72435271968741</v>
       </c>
-      <c r="M23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>0.781514473078327</v>
-      </c>
-      <c r="C24">
-        <v>0.252300200675391</v>
-      </c>
-      <c r="D24">
-        <v>0.97148255767795599</v>
-      </c>
-      <c r="E24">
-        <v>0.32834126294667698</v>
-      </c>
-      <c r="F24">
-        <v>0.97375315581384203</v>
-      </c>
-      <c r="G24">
-        <v>0.41653475536812901</v>
-      </c>
-      <c r="H24">
-        <v>0.97297511869035702</v>
-      </c>
-      <c r="I24">
-        <v>0.49462548765768199</v>
-      </c>
-      <c r="J24">
-        <v>0.987217961542736</v>
-      </c>
-      <c r="K24">
-        <v>0.71854435798884497</v>
-      </c>
-      <c r="M24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>0.79139078105400196</v>
-      </c>
-      <c r="C25">
-        <v>0.26348254673169502</v>
-      </c>
-      <c r="D25">
-        <v>0.89955381952714397</v>
-      </c>
-      <c r="E25">
-        <v>0.35663736134567098</v>
-      </c>
-      <c r="F25">
-        <v>0.97870718811032198</v>
-      </c>
-      <c r="G25">
-        <v>0.48925416278294998</v>
-      </c>
-      <c r="H25">
-        <v>0.97613490211022702</v>
-      </c>
-      <c r="I25">
-        <v>0.52245741588709405</v>
-      </c>
-      <c r="J25">
-        <v>0.98750377109830201</v>
-      </c>
-      <c r="K25">
-        <v>0.67033836205645103</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="L25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="N25">
+        <v>0.699599047738378</v>
+      </c>
+      <c r="O25">
+        <v>0.65491999999999995</v>
+      </c>
+      <c r="P25">
+        <v>0.71883453378092099</v>
+      </c>
+      <c r="Q25">
+        <v>0.6754</v>
+      </c>
+      <c r="R25">
+        <v>0.73012072233862102</v>
+      </c>
+      <c r="S25">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="T25">
+        <v>0.70974499456149498</v>
+      </c>
+      <c r="U25">
+        <v>0.88732</v>
+      </c>
+      <c r="V25">
+        <v>0.88807660216933504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="M26" t="s">
+      <c r="B26">
+        <v>0.97470585433239598</v>
+      </c>
+      <c r="C26">
+        <v>0.61590340397625798</v>
+      </c>
+      <c r="D26">
+        <v>0.97805617745597695</v>
+      </c>
+      <c r="E26">
+        <v>0.699281363771182</v>
+      </c>
+      <c r="F26">
+        <v>0.97981866971530096</v>
+      </c>
+      <c r="G26">
+        <v>0.72280297468233701</v>
+      </c>
+      <c r="H26">
+        <v>0.98383588180186998</v>
+      </c>
+      <c r="I26">
+        <v>0.74610346765590596</v>
+      </c>
+      <c r="J26">
+        <v>0.98985376077740195</v>
+      </c>
+      <c r="K26">
+        <v>0.80000533022934806</v>
+      </c>
+      <c r="L26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>0.79347999999999996</v>
+      </c>
+      <c r="N26">
+        <v>0.78960022820815801</v>
+      </c>
+      <c r="O26">
+        <v>0.79391999999999996</v>
+      </c>
+      <c r="P26">
+        <v>0.79062017394131501</v>
+      </c>
+      <c r="Q26">
+        <v>0.80967999999999996</v>
+      </c>
+      <c r="R26">
+        <v>0.811025498451028</v>
+      </c>
+      <c r="S26">
+        <v>0.73284000000000005</v>
+      </c>
+      <c r="T26">
+        <v>0.72984670145208896</v>
+      </c>
+      <c r="U26">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="V26">
+        <v>0.82162120511634995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" t="s">
-        <v>7</v>
-      </c>
-      <c r="R28" t="s">
-        <v>8</v>
-      </c>
-      <c r="T28" t="s">
-        <v>9</v>
-      </c>
-      <c r="V28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.920005081058765</v>
+      </c>
+      <c r="C27">
+        <v>0.41104219789778901</v>
+      </c>
+      <c r="D27">
+        <v>0.97711935724606602</v>
+      </c>
+      <c r="E27">
+        <v>0.52666152678585698</v>
+      </c>
+      <c r="F27">
+        <v>0.97746868003620202</v>
+      </c>
+      <c r="G27">
+        <v>0.53557161942537801</v>
+      </c>
+      <c r="H27">
+        <v>0.97654773813493301</v>
+      </c>
+      <c r="I27">
+        <v>0.55953651233891999</v>
+      </c>
+      <c r="J27">
+        <v>0.95036440718334603</v>
+      </c>
+      <c r="K27">
+        <v>0.51284829745721205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1816,41 +2007,26 @@
       <c r="J29" t="s">
         <v>10</v>
       </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
       <c r="M29" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q29" t="s">
-        <v>6</v>
-      </c>
-      <c r="R29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S29" t="s">
-        <v>6</v>
-      </c>
-      <c r="T29" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U29" t="s">
-        <v>6</v>
-      </c>
-      <c r="V29" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1884,11 +2060,41 @@
       <c r="K30" t="s">
         <v>6</v>
       </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
       <c r="M30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S30" t="s">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U30" t="s">
+        <v>5</v>
+      </c>
+      <c r="V30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1922,11 +2128,41 @@
       <c r="K31">
         <v>0.47407481249990302</v>
       </c>
-      <c r="M31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.72174095994291898</v>
+      </c>
+      <c r="N31">
+        <v>0.30115923633157898</v>
+      </c>
+      <c r="O31">
+        <v>0.75544964736230602</v>
+      </c>
+      <c r="P31">
+        <v>0.33935333870295398</v>
+      </c>
+      <c r="Q31">
+        <v>0.71668236994484003</v>
+      </c>
+      <c r="R31">
+        <v>0.32086043479456999</v>
+      </c>
+      <c r="S31">
+        <v>0.88378964315443798</v>
+      </c>
+      <c r="T31">
+        <v>0.37198453337357901</v>
+      </c>
+      <c r="U31">
+        <v>0.92477977295804004</v>
+      </c>
+      <c r="V31">
+        <v>0.51796082659370202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1960,11 +2196,41 @@
       <c r="K32">
         <v>0.46569716783589199</v>
       </c>
-      <c r="M32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>0.67853712529386401</v>
+      </c>
+      <c r="N32">
+        <v>0.28951830920405702</v>
+      </c>
+      <c r="O32">
+        <v>0.773561777916007</v>
+      </c>
+      <c r="P32">
+        <v>0.32101837897880697</v>
+      </c>
+      <c r="Q32">
+        <v>0.75603508996606195</v>
+      </c>
+      <c r="R32">
+        <v>0.34278703756921602</v>
+      </c>
+      <c r="S32">
+        <v>0.87318764350204403</v>
+      </c>
+      <c r="T32">
+        <v>0.311720505418565</v>
+      </c>
+      <c r="U32">
+        <v>0.92177937961379097</v>
+      </c>
+      <c r="V32">
+        <v>0.49618534838478001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1998,11 +2264,41 @@
       <c r="K33">
         <v>0.47630614243479102</v>
       </c>
-      <c r="M33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33">
+        <v>0.67929637117061004</v>
+      </c>
+      <c r="N33">
+        <v>0.29753522969212098</v>
+      </c>
+      <c r="O33">
+        <v>0.79024689212305199</v>
+      </c>
+      <c r="P33">
+        <v>0.35839408733740302</v>
+      </c>
+      <c r="Q33">
+        <v>0.77304036809703702</v>
+      </c>
+      <c r="R33">
+        <v>0.35384117408739901</v>
+      </c>
+      <c r="S33">
+        <v>0.88740292172449398</v>
+      </c>
+      <c r="T33">
+        <v>0.38534853901731098</v>
+      </c>
+      <c r="U33">
+        <v>0.87493482377262799</v>
+      </c>
+      <c r="V33">
+        <v>0.53208295896362801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2036,54 +2332,109 @@
       <c r="K34">
         <v>0.36564660845063701</v>
       </c>
-      <c r="M34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <v>0.85176410322084894</v>
+      </c>
+      <c r="N34">
+        <v>0.42863501651685099</v>
+      </c>
+      <c r="O34">
+        <v>0.91029006851507899</v>
+      </c>
+      <c r="P34">
+        <v>0.44293219718558402</v>
+      </c>
+      <c r="Q34">
+        <v>0.91185429797199002</v>
+      </c>
+      <c r="R34">
+        <v>0.48289412691870198</v>
+      </c>
+      <c r="S34">
+        <v>0.88217052845342503</v>
+      </c>
+      <c r="T34">
+        <v>0.41629171195215903</v>
+      </c>
+      <c r="U34">
+        <v>0.92331616644865</v>
+      </c>
+      <c r="V34">
+        <v>0.52643404897096802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
-      <c r="M35" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" t="s">
-        <v>6</v>
-      </c>
-      <c r="P35" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" t="s">
-        <v>6</v>
-      </c>
-      <c r="T35" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" t="s">
-        <v>6</v>
-      </c>
-      <c r="V35" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.707990036405441</v>
+      </c>
+      <c r="C35">
+        <v>0.36506180211406303</v>
+      </c>
+      <c r="D35">
+        <v>0.86951523280321896</v>
+      </c>
+      <c r="E35">
+        <v>0.27101453586114699</v>
+      </c>
+      <c r="F35">
+        <v>0.86989844797853899</v>
+      </c>
+      <c r="G35">
+        <v>0.31317924111954998</v>
+      </c>
+      <c r="H35">
+        <v>0.83061889250814303</v>
+      </c>
+      <c r="I35">
+        <v>0.31251447735170701</v>
+      </c>
+      <c r="J35">
+        <v>0.80820080475186795</v>
+      </c>
+      <c r="K35">
+        <v>0.40694841365601703</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>0.76651817159000002</v>
+      </c>
+      <c r="N35">
+        <v>0.41514191309199999</v>
+      </c>
+      <c r="O35">
+        <v>0.905451019493</v>
+      </c>
+      <c r="P35">
+        <v>0.472369548945</v>
+      </c>
+      <c r="Q35">
+        <v>0.91198236354200002</v>
+      </c>
+      <c r="R35">
+        <v>0.45515153136600001</v>
+      </c>
+      <c r="S35">
+        <v>0.88881164299000004</v>
+      </c>
+      <c r="T35">
+        <v>0.41499299961800001</v>
+      </c>
+      <c r="U35">
+        <v>0.84319285759999996</v>
+      </c>
+      <c r="V35">
+        <v>0.49066776882399998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2117,14 +2468,50 @@
       <c r="K37" t="s">
         <v>6</v>
       </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
       <c r="M37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s">
+        <v>6</v>
+      </c>
+      <c r="U37" t="s">
+        <v>5</v>
+      </c>
+      <c r="V37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
+      <c r="B38">
+        <v>0.73099415204678297</v>
+      </c>
+      <c r="C38">
+        <v>0.342263033845008</v>
+      </c>
       <c r="D38">
         <v>0.82289055973266501</v>
       </c>
@@ -2149,14 +2536,50 @@
       <c r="K38">
         <v>0.56801580935089202</v>
       </c>
-      <c r="M38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0.64719755943614499</v>
+      </c>
+      <c r="N38">
+        <v>0.18531545904878299</v>
+      </c>
+      <c r="O38">
+        <v>0.64382495266147699</v>
+      </c>
+      <c r="P38">
+        <v>0.19322754442040899</v>
+      </c>
+      <c r="Q38">
+        <v>0.67659583420997205</v>
+      </c>
+      <c r="R38">
+        <v>0.198613346474415</v>
+      </c>
+      <c r="S38">
+        <v>0.84582579423521898</v>
+      </c>
+      <c r="T38">
+        <v>0.16067117556987801</v>
+      </c>
+      <c r="U38">
+        <v>0.78654323585104102</v>
+      </c>
+      <c r="V38">
+        <v>0.27158151844287598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
+      <c r="B39">
+        <v>0.766917293233082</v>
+      </c>
+      <c r="C39">
+        <v>0.40129095816016902</v>
+      </c>
       <c r="D39">
         <v>0.82790309106098503</v>
       </c>
@@ -2181,14 +2604,50 @@
       <c r="K39">
         <v>0.62174738699857102</v>
       </c>
-      <c r="M39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>0.50039343572480499</v>
+      </c>
+      <c r="N39">
+        <v>0.15980703220767101</v>
+      </c>
+      <c r="O39">
+        <v>0.64050073637702498</v>
+      </c>
+      <c r="P39">
+        <v>0.179006084582992</v>
+      </c>
+      <c r="Q39">
+        <v>0.59529139490847804</v>
+      </c>
+      <c r="R39">
+        <v>0.17413138160481501</v>
+      </c>
+      <c r="S39">
+        <v>0.85315590153587195</v>
+      </c>
+      <c r="T39">
+        <v>0.14137474443046999</v>
+      </c>
+      <c r="U39">
+        <v>0.71732169156322301</v>
+      </c>
+      <c r="V39">
+        <v>0.22996760108700201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
+      <c r="B40">
+        <v>0.91478696741854604</v>
+      </c>
+      <c r="C40">
+        <v>0.43785847651259002</v>
+      </c>
       <c r="D40">
         <v>0.80367585630743499</v>
       </c>
@@ -2213,14 +2672,50 @@
       <c r="K40">
         <v>0.61916707735767096</v>
       </c>
-      <c r="M40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <v>0.63331369661266501</v>
+      </c>
+      <c r="N40">
+        <v>0.179227058108714</v>
+      </c>
+      <c r="O40">
+        <v>0.69039343572480505</v>
+      </c>
+      <c r="P40">
+        <v>0.19808182892911999</v>
+      </c>
+      <c r="Q40">
+        <v>0.67444140542815001</v>
+      </c>
+      <c r="R40">
+        <v>0.200850179525774</v>
+      </c>
+      <c r="S40">
+        <v>0.83997896065642697</v>
+      </c>
+      <c r="T40">
+        <v>0.16345253216823699</v>
+      </c>
+      <c r="U40">
+        <v>0.78826635808962697</v>
+      </c>
+      <c r="V40">
+        <v>0.28019774460944702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
+      <c r="B41">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="C41">
+        <v>0.47349225425469699</v>
+      </c>
       <c r="D41">
         <v>0.91478696741854604</v>
       </c>
@@ -2245,54 +2740,109 @@
       <c r="K41">
         <v>0.567440171806742</v>
       </c>
-      <c r="M41" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>6</v>
-      </c>
-      <c r="R41" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" t="s">
-        <v>6</v>
-      </c>
-      <c r="T41" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" t="s">
-        <v>6</v>
-      </c>
-      <c r="V41" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41">
+        <v>0.81758678729223599</v>
+      </c>
+      <c r="N41">
+        <v>0.242930145630499</v>
+      </c>
+      <c r="O41">
+        <v>0.74487060803702898</v>
+      </c>
+      <c r="P41">
+        <v>0.223818662284823</v>
+      </c>
+      <c r="Q41">
+        <v>0.73877130233536703</v>
+      </c>
+      <c r="R41">
+        <v>0.22399610181973301</v>
+      </c>
+      <c r="S41">
+        <v>0.84674100568062205</v>
+      </c>
+      <c r="T41">
+        <v>0.169519050196003</v>
+      </c>
+      <c r="U41">
+        <v>0.92059541342310103</v>
+      </c>
+      <c r="V41">
+        <v>0.21657736818224499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
-      <c r="M42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.86382623224728405</v>
+      </c>
+      <c r="C42">
+        <v>0.48823311889800802</v>
+      </c>
+      <c r="D42">
+        <v>0.915622389306599</v>
+      </c>
+      <c r="E42">
+        <v>0.43257311746990301</v>
+      </c>
+      <c r="F42">
+        <v>0.91729323308270605</v>
+      </c>
+      <c r="G42">
+        <v>0.52619277285495403</v>
+      </c>
+      <c r="H42">
+        <v>0.907268170426065</v>
+      </c>
+      <c r="I42">
+        <v>0.46377229589283098</v>
+      </c>
+      <c r="J42">
+        <v>0.915622389306599</v>
+      </c>
+      <c r="K42">
+        <v>0.568503629916561</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>0.62937723543000001</v>
+      </c>
+      <c r="N42">
+        <v>0.18881129920100001</v>
+      </c>
+      <c r="O42">
+        <v>0.93179675994099997</v>
+      </c>
+      <c r="P42">
+        <v>5.00707095996E-2</v>
+      </c>
+      <c r="Q42">
+        <v>0.92972438459899998</v>
+      </c>
+      <c r="R42">
+        <v>7.5284640895499993E-2</v>
+      </c>
+      <c r="S42">
+        <v>0.85669051125600004</v>
+      </c>
+      <c r="T42">
+        <v>0.15195949606299999</v>
+      </c>
+      <c r="U42">
+        <v>0.67782873974299995</v>
+      </c>
+      <c r="V42">
+        <v>0.20991852167799999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2326,189 +2876,381 @@
       <c r="K44" t="s">
         <v>6</v>
       </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
       <c r="M44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s">
+        <v>6</v>
+      </c>
+      <c r="S44" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s">
+        <v>6</v>
+      </c>
+      <c r="U44" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
+      <c r="B45">
+        <v>0.50207039337474102</v>
+      </c>
+      <c r="C45">
+        <v>0.30110479948154301</v>
+      </c>
+      <c r="D45">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="E45">
+        <v>0.30514885353473598</v>
+      </c>
+      <c r="F45">
+        <v>0.68012422360248403</v>
+      </c>
+      <c r="G45">
+        <v>0.29478470995537298</v>
+      </c>
+      <c r="H45">
+        <v>0.82091097308488503</v>
+      </c>
+      <c r="I45">
+        <v>0.24285112955070001</v>
+      </c>
       <c r="J45">
         <v>0.84368530020703902</v>
       </c>
       <c r="K45">
         <v>0.400920419610995</v>
       </c>
-      <c r="M45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0.64990281827016505</v>
+      </c>
+      <c r="N45">
+        <v>0.46289519851668898</v>
+      </c>
+      <c r="O45">
+        <v>0.681041464204729</v>
+      </c>
+      <c r="P45">
+        <v>0.47507736654559202</v>
+      </c>
+      <c r="Q45">
+        <v>0.68399740848720403</v>
+      </c>
+      <c r="R45">
+        <v>0.48592083801890601</v>
+      </c>
+      <c r="S45">
+        <v>0.74364269517330694</v>
+      </c>
+      <c r="T45">
+        <v>0.40778804050196299</v>
+      </c>
+      <c r="U45">
+        <v>0.77137998056365398</v>
+      </c>
+      <c r="V45">
+        <v>0.58004455450842296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
+      <c r="B46">
+        <v>0.65734989648033104</v>
+      </c>
+      <c r="C46">
+        <v>0.325658373585127</v>
+      </c>
+      <c r="D46">
+        <v>0.75465838509316696</v>
+      </c>
+      <c r="E46">
+        <v>0.32324772574154598</v>
+      </c>
+      <c r="F46">
+        <v>0.841614906832298</v>
+      </c>
+      <c r="G46">
+        <v>0.36701963937880899</v>
+      </c>
+      <c r="H46">
+        <v>0.81262939958592095</v>
+      </c>
+      <c r="I46">
+        <v>0.33231123479102298</v>
+      </c>
       <c r="J46">
         <v>0.86542443064182095</v>
       </c>
       <c r="K46">
         <v>0.51398800942029998</v>
       </c>
-      <c r="M46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>0.60143343051506304</v>
+      </c>
+      <c r="N46">
+        <v>0.42252914484514997</v>
+      </c>
+      <c r="O46">
+        <v>0.61775186264982096</v>
+      </c>
+      <c r="P46">
+        <v>0.43266899376908802</v>
+      </c>
+      <c r="Q46">
+        <v>0.59637188208616698</v>
+      </c>
+      <c r="R46">
+        <v>0.44751458127155602</v>
+      </c>
+      <c r="S46">
+        <v>0.73603012633624798</v>
+      </c>
+      <c r="T46">
+        <v>0.37180658567288899</v>
+      </c>
+      <c r="U46">
+        <v>0.72991577583414302</v>
+      </c>
+      <c r="V46">
+        <v>0.53224564513343398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
+      <c r="B47">
+        <v>0.62629399585921297</v>
+      </c>
+      <c r="C47">
+        <v>0.34912567344270101</v>
+      </c>
+      <c r="D47">
+        <v>0.69461697722567195</v>
+      </c>
+      <c r="E47">
+        <v>0.33974777970000503</v>
+      </c>
+      <c r="F47">
+        <v>0.79606625258799102</v>
+      </c>
+      <c r="G47">
+        <v>0.27162569260320302</v>
+      </c>
+      <c r="H47">
+        <v>0.84472049689440898</v>
+      </c>
+      <c r="I47">
+        <v>0.29453382468524503</v>
+      </c>
       <c r="J47">
         <v>0.63768115942028902</v>
       </c>
       <c r="K47">
         <v>0.39650033952779001</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47">
+        <v>0.59179624230644601</v>
+      </c>
+      <c r="N47">
+        <v>0.43741947744769299</v>
+      </c>
+      <c r="O47">
+        <v>0.63483965014577204</v>
+      </c>
+      <c r="P47">
+        <v>0.44922635459670601</v>
+      </c>
+      <c r="Q47">
+        <v>0.63147878198898599</v>
+      </c>
+      <c r="R47">
+        <v>0.45217789935421698</v>
+      </c>
+      <c r="S47">
+        <v>0.75166018788467703</v>
+      </c>
+      <c r="T47">
+        <v>0.41208653792144501</v>
+      </c>
+      <c r="U47">
+        <v>0.773283122772918</v>
+      </c>
+      <c r="V47">
+        <v>0.58919608358255504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
+      <c r="B48">
+        <v>0.80848861283643803</v>
+      </c>
+      <c r="C48">
+        <v>0.36089578382508702</v>
+      </c>
+      <c r="D48">
+        <v>0.73188405797101397</v>
+      </c>
+      <c r="E48">
+        <v>0.30117394800674102</v>
+      </c>
+      <c r="F48">
+        <v>0.75983436853001995</v>
+      </c>
+      <c r="G48">
+        <v>0.24157045346101499</v>
+      </c>
+      <c r="H48">
+        <v>0.83022774327122095</v>
+      </c>
+      <c r="I48">
+        <v>0.28289954751086799</v>
+      </c>
       <c r="J48">
         <v>0.894409937888198</v>
       </c>
       <c r="K48">
         <v>0.311678082417644</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48">
+        <v>0.58317136378360801</v>
+      </c>
+      <c r="N48">
+        <v>0.46985382704546302</v>
+      </c>
+      <c r="O48">
+        <v>0.63504211208292805</v>
+      </c>
+      <c r="P48">
+        <v>0.45267134732169201</v>
+      </c>
+      <c r="Q48">
+        <v>0.60515873015873001</v>
+      </c>
+      <c r="R48">
+        <v>0.45297965129401802</v>
+      </c>
+      <c r="S48">
+        <v>0.72963232912212495</v>
+      </c>
+      <c r="T48">
+        <v>0.38447761258179802</v>
+      </c>
+      <c r="U48">
+        <v>0.82515387107223803</v>
+      </c>
+      <c r="V48">
+        <v>0.53564108040546698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53">
-        <v>0.91478696741854604</v>
-      </c>
-      <c r="C53">
-        <v>0.51181417604897705</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54">
-        <v>0.82790309106098503</v>
-      </c>
-      <c r="C54">
-        <v>0.47827899592197398</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>0.85797827903090995</v>
-      </c>
-      <c r="C55">
-        <v>0.468783934846009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>0.80367585630743499</v>
-      </c>
-      <c r="C56">
-        <v>0.42673129033593998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57">
-        <v>0.82205513784461104</v>
-      </c>
-      <c r="C57">
-        <v>0.42435544818086801</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>0.89724310776942295</v>
-      </c>
-      <c r="C58">
-        <v>0.409821491137973</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59">
-        <v>0.82289055973266501</v>
-      </c>
-      <c r="C59">
-        <v>0.39258059926591299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>0.90476190476190399</v>
-      </c>
-      <c r="C60">
-        <v>0.38929524834204099</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61">
-        <v>0.73099415204678297</v>
-      </c>
-      <c r="C61">
-        <v>0.30753448083574503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62">
-        <v>0.75522138680033402</v>
-      </c>
-      <c r="C62">
-        <v>0.29672555187847499</v>
+      <c r="B49">
+        <v>0.77122153209109701</v>
+      </c>
+      <c r="C49">
+        <v>0.36456762643842699</v>
+      </c>
+      <c r="D49">
+        <v>0.86335403726708004</v>
+      </c>
+      <c r="E49">
+        <v>0.30038376174855902</v>
+      </c>
+      <c r="F49">
+        <v>0.84989648033126297</v>
+      </c>
+      <c r="G49">
+        <v>0.21945278126503101</v>
+      </c>
+      <c r="H49">
+        <v>0.82815734989648004</v>
+      </c>
+      <c r="I49">
+        <v>0.348384714119093</v>
+      </c>
+      <c r="J49">
+        <v>0.81884057971014401</v>
+      </c>
+      <c r="K49">
+        <v>0.34940700804919</v>
+      </c>
+      <c r="L49" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49">
+        <v>0.57470845480999999</v>
+      </c>
+      <c r="N49">
+        <v>0.47265642783099998</v>
+      </c>
+      <c r="O49">
+        <v>0.78858924522200002</v>
+      </c>
+      <c r="P49">
+        <v>0.24345696979799999</v>
+      </c>
+      <c r="Q49">
+        <v>0.78919663103299997</v>
+      </c>
+      <c r="R49">
+        <v>0.37982236928899998</v>
+      </c>
+      <c r="S49">
+        <v>0.73931000971799998</v>
+      </c>
+      <c r="T49">
+        <v>0.37518956910500001</v>
+      </c>
+      <c r="U49">
+        <v>0.70387917071600004</v>
+      </c>
+      <c r="V49">
+        <v>0.501236060747</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A52:C52">
-    <sortState ref="A53:C62">
-      <sortCondition descending="1" ref="C52"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2516,20 +3258,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -3464,664 +4207,811 @@
         <v>0.59924545697834897</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="F20" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="H20" t="s">
+      <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="J20" t="s">
+      <c r="F21" t="s">
         <v>10</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M21" t="s">
         <v>0</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N21" t="s">
         <v>4</v>
       </c>
-      <c r="P20" t="s">
+      <c r="O21" t="s">
         <v>7</v>
       </c>
-      <c r="R20" t="s">
+      <c r="P21" t="s">
         <v>8</v>
       </c>
-      <c r="T20" t="s">
+      <c r="Q21" t="s">
         <v>9</v>
       </c>
-      <c r="V20" t="s">
+      <c r="R21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" t="s">
-        <v>6</v>
-      </c>
-      <c r="T21" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" t="s">
-        <v>6</v>
-      </c>
-      <c r="V21" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22">
         <v>200</v>
       </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
       <c r="D22">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>100</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="J22">
         <v>200</v>
       </c>
       <c r="M22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22">
+        <v>50</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="Q22">
+        <v>50</v>
+      </c>
+      <c r="R22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23">
         <v>200</v>
       </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
       <c r="D23">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
       </c>
       <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>200</v>
-      </c>
-      <c r="J23">
         <v>200</v>
       </c>
       <c r="M23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>50</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="P23">
+        <v>50</v>
+      </c>
+      <c r="Q23">
+        <v>50</v>
+      </c>
+      <c r="R23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24">
         <v>200</v>
       </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
       <c r="D24">
         <v>200</v>
       </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
       <c r="F24">
-        <v>200</v>
-      </c>
-      <c r="H24">
-        <v>200</v>
-      </c>
-      <c r="J24">
         <v>200</v>
       </c>
       <c r="M24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>200</v>
+      </c>
+      <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="P24">
+        <v>50</v>
+      </c>
+      <c r="Q24">
+        <v>200</v>
+      </c>
+      <c r="R24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25">
         <v>200</v>
       </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
       <c r="D25">
+        <v>200</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>200</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>50</v>
+      </c>
+      <c r="O25">
+        <v>200</v>
+      </c>
+      <c r="P25">
+        <v>50</v>
+      </c>
+      <c r="Q25">
+        <v>50</v>
+      </c>
+      <c r="R25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+      <c r="C26">
         <v>100</v>
       </c>
-      <c r="F25">
-        <v>200</v>
-      </c>
-      <c r="H25">
-        <v>200</v>
-      </c>
-      <c r="J25">
-        <v>200</v>
-      </c>
-      <c r="M25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>200</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
         <v>18</v>
       </c>
-      <c r="N28" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" t="s">
-        <v>7</v>
-      </c>
-      <c r="R28" t="s">
-        <v>8</v>
-      </c>
-      <c r="T28" t="s">
-        <v>9</v>
-      </c>
-      <c r="V28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>10</v>
-      </c>
       <c r="M29" t="s">
         <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R29" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" t="s">
-        <v>6</v>
-      </c>
-      <c r="T29" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" t="s">
-        <v>6</v>
-      </c>
-      <c r="V29" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>50</v>
+      </c>
+      <c r="O30">
+        <v>50</v>
+      </c>
+      <c r="P30">
+        <v>50</v>
+      </c>
+      <c r="Q30">
+        <v>100</v>
+      </c>
+      <c r="R30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31">
         <v>100</v>
       </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
       <c r="D31">
         <v>50</v>
       </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
       <c r="F31">
-        <v>50</v>
-      </c>
-      <c r="H31">
-        <v>100</v>
-      </c>
-      <c r="J31">
         <v>200</v>
       </c>
       <c r="M31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+      <c r="P31">
+        <v>200</v>
+      </c>
+      <c r="Q31">
+        <v>200</v>
+      </c>
+      <c r="R31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
         <v>50</v>
       </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
       <c r="D32">
         <v>50</v>
       </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
       <c r="F32">
-        <v>50</v>
-      </c>
-      <c r="H32">
-        <v>50</v>
-      </c>
-      <c r="J32">
         <v>200</v>
       </c>
       <c r="M32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>200</v>
+      </c>
+      <c r="O32">
+        <v>50</v>
+      </c>
+      <c r="P32">
+        <v>100</v>
+      </c>
+      <c r="Q32">
+        <v>50</v>
+      </c>
+      <c r="R32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33">
         <v>100</v>
       </c>
+      <c r="C33">
+        <v>200</v>
+      </c>
       <c r="D33">
         <v>200</v>
       </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
       <c r="F33">
         <v>200</v>
       </c>
-      <c r="H33">
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>200</v>
+      </c>
+      <c r="O33">
+        <v>200</v>
+      </c>
+      <c r="P33">
+        <v>200</v>
+      </c>
+      <c r="Q33">
+        <v>200</v>
+      </c>
+      <c r="R33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
         <v>50</v>
       </c>
-      <c r="J33">
-        <v>200</v>
-      </c>
-      <c r="M33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="E34">
+        <v>200</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
         <v>20</v>
       </c>
-      <c r="N35" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" t="s">
-        <v>6</v>
-      </c>
-      <c r="P35" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" t="s">
-        <v>6</v>
-      </c>
-      <c r="T35" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" t="s">
-        <v>6</v>
-      </c>
-      <c r="V35" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>9</v>
+      </c>
+      <c r="R36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>200</v>
+      </c>
+      <c r="O37">
+        <v>200</v>
+      </c>
+      <c r="P37">
+        <v>100</v>
+      </c>
+      <c r="Q37">
+        <v>50</v>
+      </c>
+      <c r="R37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>200</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
       <c r="F38">
-        <v>200</v>
-      </c>
-      <c r="H38">
         <v>50</v>
       </c>
-      <c r="J38">
+      <c r="M38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38">
         <v>50</v>
       </c>
-      <c r="M38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>100</v>
+      </c>
+      <c r="P38">
+        <v>200</v>
+      </c>
+      <c r="Q38">
+        <v>200</v>
+      </c>
+      <c r="R38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>50</v>
+      </c>
       <c r="F39">
+        <v>200</v>
+      </c>
+      <c r="M39" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39">
+        <v>200</v>
+      </c>
+      <c r="O39">
+        <v>200</v>
+      </c>
+      <c r="P39">
+        <v>200</v>
+      </c>
+      <c r="Q39">
         <v>100</v>
       </c>
-      <c r="H39">
-        <v>50</v>
-      </c>
-      <c r="J39">
-        <v>200</v>
-      </c>
-      <c r="M39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+      <c r="D40">
+        <v>200</v>
+      </c>
+      <c r="E40">
+        <v>200</v>
+      </c>
       <c r="F40">
-        <v>200</v>
-      </c>
-      <c r="H40">
-        <v>200</v>
-      </c>
-      <c r="J40">
         <v>200</v>
       </c>
       <c r="M40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>200</v>
+      </c>
+      <c r="O40">
+        <v>200</v>
+      </c>
+      <c r="P40">
+        <v>200</v>
+      </c>
+      <c r="Q40">
+        <v>200</v>
+      </c>
+      <c r="R40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>200</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
         <v>21</v>
       </c>
-      <c r="N41" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>6</v>
-      </c>
-      <c r="R41" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" t="s">
-        <v>6</v>
-      </c>
-      <c r="T41" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" t="s">
-        <v>6</v>
-      </c>
-      <c r="V41" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" t="s">
+        <v>7</v>
+      </c>
+      <c r="P43" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>9</v>
+      </c>
+      <c r="R43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>50</v>
+      </c>
+      <c r="O44">
+        <v>200</v>
+      </c>
+      <c r="P44">
+        <v>50</v>
+      </c>
+      <c r="Q44">
+        <v>50</v>
+      </c>
+      <c r="R44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
-      <c r="J45">
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
         <v>200</v>
       </c>
       <c r="M45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>100</v>
+      </c>
+      <c r="O45">
+        <v>50</v>
+      </c>
+      <c r="P45">
+        <v>200</v>
+      </c>
+      <c r="Q45">
+        <v>100</v>
+      </c>
+      <c r="R45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
-      <c r="J46">
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
+      </c>
+      <c r="E46">
+        <v>200</v>
+      </c>
+      <c r="F46">
         <v>200</v>
       </c>
       <c r="M46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N46">
+        <v>50</v>
+      </c>
+      <c r="O46">
+        <v>50</v>
+      </c>
+      <c r="P46">
+        <v>50</v>
+      </c>
+      <c r="Q46">
+        <v>50</v>
+      </c>
+      <c r="R46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
-      <c r="J47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+      <c r="E47">
+        <v>200</v>
+      </c>
+      <c r="F47">
+        <v>200</v>
+      </c>
+      <c r="M47" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47">
+        <v>200</v>
+      </c>
+      <c r="O47">
+        <v>200</v>
+      </c>
+      <c r="P47">
+        <v>200</v>
+      </c>
+      <c r="Q47">
+        <v>200</v>
+      </c>
+      <c r="R47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" t="s">
-        <v>43</v>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>200</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>53</v>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4131,77 +5021,83 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55">
-        <v>0.89891395154553</v>
+        <v>0.64990281827016505</v>
       </c>
       <c r="C55">
-        <v>0.420948185960833</v>
+        <v>0.46289519851668898</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B56">
-        <v>0.83040935672514604</v>
+        <v>0.64990281827016505</v>
       </c>
       <c r="C56">
-        <v>0.41920868853436399</v>
+        <v>0.46289519851668898</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57">
-        <v>0.83625730994152003</v>
-      </c>
-      <c r="C57">
-        <v>0.39860642745313801</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B58">
+        <v>0.57397959183673397</v>
+      </c>
+      <c r="C58">
+        <v>0.43373050926115098</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B59">
-        <v>0.83959899749373401</v>
+        <v>0.584912536443148</v>
       </c>
       <c r="C59">
-        <v>0.372257009033513</v>
+        <v>0.42577035932458801</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="C60">
-        <v>0.33308991568223001</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>0.86883876357560497</v>
+        <v>0.62244897959183598</v>
       </c>
       <c r="C61">
-        <v>0.25874222734339702</v>
+        <v>0.42120053052144002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62">
+        <v>0.61556527372853898</v>
+      </c>
+      <c r="C62">
+        <v>0.41540825888496502</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
